--- a/lab3/Experiment 3/vSweep.xlsx
+++ b/lab3/Experiment 3/vSweep.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="vSweep" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1180,11 +1180,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71444160"/>
-        <c:axId val="71444736"/>
+        <c:axId val="511130368"/>
+        <c:axId val="516856576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71444160"/>
+        <c:axId val="511130368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,12 +1223,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71444736"/>
+        <c:crossAx val="516856576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71444736"/>
+        <c:axId val="516856576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71444160"/>
+        <c:crossAx val="511130368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1906,7 +1906,7 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,11 +1968,11 @@
         <v>0.05</v>
       </c>
       <c r="E4">
-        <f>B4-B3</f>
+        <f t="shared" ref="E4:E35" si="1">B4-B3</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F67" si="1">E4/D4</f>
+        <f t="shared" ref="F4:F67" si="2">E4/D4</f>
         <v>0</v>
       </c>
     </row>
@@ -1988,11 +1988,11 @@
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="E5">
-        <f>B5-B4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2008,11 +2008,11 @@
         <v>5.0000000000000017E-2</v>
       </c>
       <c r="E6">
-        <f>B6-B5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2028,11 +2028,11 @@
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="E7">
-        <f>B7-B6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2048,11 +2048,11 @@
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="E8">
-        <f>B8-B7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2068,11 +2068,11 @@
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="E9">
-        <f>B9-B8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2088,11 +2088,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E10">
-        <f>B10-B9</f>
+        <f t="shared" si="1"/>
         <v>1E-3</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9999999999999983E-2</v>
       </c>
     </row>
@@ -2108,11 +2108,11 @@
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="E11">
-        <f>B11-B10</f>
+        <f t="shared" si="1"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0000000000000012E-2</v>
       </c>
     </row>
@@ -2128,11 +2128,11 @@
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="E12">
-        <f>B12-B11</f>
+        <f t="shared" si="1"/>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26000000000000006</v>
       </c>
     </row>
@@ -2148,11 +2148,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E13">
-        <f>B13-B12</f>
+        <f t="shared" si="1"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.51999999999999946</v>
       </c>
     </row>
@@ -2168,11 +2168,11 @@
         <v>4.9999999999999933E-2</v>
       </c>
       <c r="E14">
-        <f>B14-B13</f>
+        <f t="shared" si="1"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000000000000095</v>
       </c>
     </row>
@@ -2188,11 +2188,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E15">
-        <f>B15-B14</f>
+        <f t="shared" si="1"/>
         <v>3.8999999999999993E-2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.77999999999999914</v>
       </c>
     </row>
@@ -2208,11 +2208,11 @@
         <v>4.9999999999999933E-2</v>
       </c>
       <c r="E16">
-        <f>B16-B15</f>
+        <f t="shared" si="1"/>
         <v>4.200000000000001E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8400000000000013</v>
       </c>
     </row>
@@ -2228,11 +2228,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E17">
-        <f>B17-B16</f>
+        <f t="shared" si="1"/>
         <v>4.2999999999999983E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85999999999999888</v>
       </c>
     </row>
@@ -2248,11 +2248,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E18">
-        <f>B18-B17</f>
+        <f t="shared" si="1"/>
         <v>4.5000000000000012E-2</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89999999999999947</v>
       </c>
     </row>
@@ -2268,11 +2268,11 @@
         <v>4.9999999999999933E-2</v>
       </c>
       <c r="E19">
-        <f>B19-B18</f>
+        <f t="shared" si="1"/>
         <v>4.4999999999999984E-2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90000000000000091</v>
       </c>
     </row>
@@ -2288,11 +2288,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E20">
-        <f>B20-B19</f>
+        <f t="shared" si="1"/>
         <v>4.6000000000000041E-2</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92</v>
       </c>
     </row>
@@ -2308,11 +2308,11 @@
         <v>4.9999999999999933E-2</v>
       </c>
       <c r="E21">
-        <f>B21-B20</f>
+        <f t="shared" si="1"/>
         <v>4.5999999999999985E-2</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92000000000000093</v>
       </c>
     </row>
@@ -2328,11 +2328,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E22">
-        <f>B22-B21</f>
+        <f t="shared" si="1"/>
         <v>4.7999999999999987E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95999999999999885</v>
       </c>
     </row>
@@ -2348,11 +2348,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E23">
-        <f>B23-B22</f>
+        <f t="shared" si="1"/>
         <v>4.7999999999999987E-2</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95999999999999885</v>
       </c>
     </row>
@@ -2368,11 +2368,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E24">
-        <f>B24-B23</f>
+        <f t="shared" si="1"/>
         <v>4.7000000000000042E-2</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
     </row>
@@ -2388,11 +2388,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E25">
-        <f>B25-B24</f>
+        <f t="shared" si="1"/>
         <v>4.7999999999999932E-2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96000000000000207</v>
       </c>
     </row>
@@ -2408,11 +2408,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E26">
-        <f>B26-B25</f>
+        <f t="shared" si="1"/>
         <v>4.7000000000000042E-2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
     </row>
@@ -2428,11 +2428,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E27">
-        <f>B27-B26</f>
+        <f t="shared" si="1"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
     </row>
@@ -2448,11 +2448,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E28">
-        <f>B28-B27</f>
+        <f t="shared" si="1"/>
         <v>4.7999999999999932E-2</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95999999999999774</v>
       </c>
     </row>
@@ -2468,11 +2468,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E29">
-        <f>B29-B28</f>
+        <f t="shared" si="1"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
     </row>
@@ -2488,11 +2488,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E30">
-        <f>B30-B29</f>
+        <f t="shared" si="1"/>
         <v>4.8999999999999932E-2</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98000000000000209</v>
       </c>
     </row>
@@ -2508,11 +2508,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E31">
-        <f>B31-B30</f>
+        <f t="shared" si="1"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
     </row>
@@ -2528,11 +2528,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E32">
-        <f>B32-B31</f>
+        <f t="shared" si="1"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
     </row>
@@ -2548,11 +2548,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E33">
-        <f>B33-B32</f>
+        <f t="shared" si="1"/>
         <v>4.8999999999999932E-2</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97999999999999776</v>
       </c>
     </row>
@@ -2568,11 +2568,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E34">
-        <f>B34-B33</f>
+        <f t="shared" si="1"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
     </row>
@@ -2588,11 +2588,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E35">
-        <f>B35-B34</f>
+        <f t="shared" si="1"/>
         <v>4.8999999999999932E-2</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98000000000000209</v>
       </c>
     </row>
@@ -2608,11 +2608,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E36">
-        <f>B36-B35</f>
+        <f t="shared" ref="E36:E67" si="3">B36-B35</f>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
     </row>
@@ -2628,11 +2628,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E37">
-        <f>B37-B36</f>
+        <f t="shared" si="3"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
     </row>
@@ -2648,11 +2648,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E38">
-        <f>B38-B37</f>
+        <f t="shared" si="3"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2668,11 +2668,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E39">
-        <f>B39-B38</f>
+        <f t="shared" si="3"/>
         <v>4.7999999999999821E-2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95999999999999552</v>
       </c>
     </row>
@@ -2688,11 +2688,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E40">
-        <f>B40-B39</f>
+        <f t="shared" si="3"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96000000000000429</v>
       </c>
     </row>
@@ -2708,11 +2708,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E41">
-        <f>B41-B40</f>
+        <f t="shared" si="3"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
     </row>
@@ -2728,11 +2728,11 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E42">
-        <f>B42-B41</f>
+        <f t="shared" si="3"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
     </row>
@@ -2748,11 +2748,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E43">
-        <f>B43-B42</f>
+        <f t="shared" si="3"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96000000000000429</v>
       </c>
     </row>
@@ -2768,11 +2768,11 @@
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="E44">
-        <f>B44-B43</f>
+        <f t="shared" si="3"/>
         <v>4.8999999999999932E-2</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97999999999999343</v>
       </c>
     </row>
@@ -2788,11 +2788,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E45">
-        <f>B45-B44</f>
+        <f t="shared" si="3"/>
         <v>4.8999999999999932E-2</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98000000000000209</v>
       </c>
     </row>
@@ -2808,11 +2808,11 @@
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="E46">
-        <f>B46-B45</f>
+        <f t="shared" si="3"/>
         <v>4.9000000000000155E-2</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97999999999999787</v>
       </c>
     </row>
@@ -2828,11 +2828,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E47">
-        <f>B47-B46</f>
+        <f t="shared" si="3"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2848,11 +2848,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E48">
-        <f>B48-B47</f>
+        <f t="shared" si="3"/>
         <v>4.9000000000000155E-2</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98000000000000653</v>
       </c>
     </row>
@@ -2868,11 +2868,11 @@
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="E49">
-        <f>B49-B48</f>
+        <f t="shared" si="3"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95999999999999575</v>
       </c>
     </row>
@@ -2888,11 +2888,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E50">
-        <f>B50-B49</f>
+        <f t="shared" si="3"/>
         <v>4.7999999999999821E-2</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95999999999999985</v>
       </c>
     </row>
@@ -2908,11 +2908,11 @@
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="E51">
-        <f>B51-B50</f>
+        <f t="shared" si="3"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95999999999999575</v>
       </c>
     </row>
@@ -2928,11 +2928,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E52">
-        <f>B52-B51</f>
+        <f t="shared" si="3"/>
         <v>4.8999999999999932E-2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98000000000000209</v>
       </c>
     </row>
@@ -2948,11 +2948,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E53">
-        <f>B53-B52</f>
+        <f t="shared" si="3"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000044</v>
       </c>
     </row>
@@ -2968,11 +2968,11 @@
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="E54">
-        <f>B54-B53</f>
+        <f t="shared" si="3"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95999999999999575</v>
       </c>
     </row>
@@ -2988,11 +2988,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E55">
-        <f>B55-B54</f>
+        <f t="shared" si="3"/>
         <v>5.9999999999999831E-2</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2000000000000008</v>
       </c>
     </row>
@@ -3008,11 +3008,11 @@
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="E56">
-        <f>B56-B55</f>
+        <f t="shared" si="3"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95999999999999575</v>
       </c>
     </row>
@@ -3028,11 +3028,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E57">
-        <f>B57-B56</f>
+        <f t="shared" si="3"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96000000000000429</v>
       </c>
     </row>
@@ -3048,11 +3048,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E58">
-        <f>B58-B57</f>
+        <f t="shared" si="3"/>
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000089</v>
       </c>
     </row>
@@ -3068,11 +3068,11 @@
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="E59">
-        <f>B59-B58</f>
+        <f t="shared" si="3"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999999112</v>
       </c>
     </row>
@@ -3088,11 +3088,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E60">
-        <f>B60-B59</f>
+        <f t="shared" si="3"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96000000000000429</v>
       </c>
     </row>
@@ -3108,11 +3108,11 @@
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="E61">
-        <f>B61-B60</f>
+        <f t="shared" si="3"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999999112</v>
       </c>
     </row>
@@ -3128,11 +3128,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E62">
-        <f>B62-B61</f>
+        <f t="shared" si="3"/>
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000089</v>
       </c>
     </row>
@@ -3148,11 +3148,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E63">
-        <f>B63-B62</f>
+        <f t="shared" si="3"/>
         <v>5.2000000000000046E-2</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0400000000000047</v>
       </c>
     </row>
@@ -3168,11 +3168,11 @@
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="E64">
-        <f>B64-B63</f>
+        <f t="shared" si="3"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95999999999999575</v>
       </c>
     </row>
@@ -3188,11 +3188,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E65">
-        <f>B65-B64</f>
+        <f t="shared" si="3"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3208,11 +3208,11 @@
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="E66">
-        <f>B66-B65</f>
+        <f t="shared" si="3"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95999999999999575</v>
       </c>
     </row>
@@ -3228,11 +3228,11 @@
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E67">
-        <f>B67-B66</f>
+        <f t="shared" si="3"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="F67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3244,15 +3244,15 @@
         <v>2.6840000000000002</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D102" si="2">A68-A67</f>
+        <f t="shared" ref="D68:D102" si="4">A68-A67</f>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E68">
-        <f>B68-B67</f>
+        <f t="shared" ref="E68:E102" si="5">B68-B67</f>
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F102" si="3">E68/D68</f>
+        <f t="shared" ref="F68:F102" si="6">E68/D68</f>
         <v>1.0000000000000089</v>
       </c>
     </row>
@@ -3264,15 +3264,15 @@
         <v>2.734</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="E69">
-        <f>B69-B68</f>
+        <f t="shared" si="5"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.99999999999999112</v>
       </c>
     </row>
@@ -3284,15 +3284,15 @@
         <v>2.782</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E70">
-        <f>B70-B69</f>
+        <f t="shared" si="5"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.96000000000000429</v>
       </c>
     </row>
@@ -3304,15 +3304,15 @@
         <v>2.83</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="E71">
-        <f>B71-B70</f>
+        <f t="shared" si="5"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.95999999999999575</v>
       </c>
     </row>
@@ -3324,15 +3324,15 @@
         <v>2.88</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E72">
-        <f>B72-B71</f>
+        <f t="shared" si="5"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3344,15 +3344,15 @@
         <v>2.93</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E73">
-        <f>B73-B72</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000089</v>
       </c>
     </row>
@@ -3364,15 +3364,15 @@
         <v>2.9780000000000002</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="E74">
-        <f>B74-B73</f>
+        <f t="shared" si="5"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.95999999999999575</v>
       </c>
     </row>
@@ -3384,15 +3384,15 @@
         <v>3.028</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E75">
-        <f>B75-B74</f>
+        <f t="shared" si="5"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="F75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3404,15 +3404,15 @@
         <v>3.0760000000000001</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="E76">
-        <f>B76-B75</f>
+        <f t="shared" si="5"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.95999999999999575</v>
       </c>
     </row>
@@ -3424,15 +3424,15 @@
         <v>3.1259999999999999</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E77">
-        <f>B77-B76</f>
+        <f t="shared" si="5"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="F77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3444,15 +3444,15 @@
         <v>3.1739999999999999</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E78">
-        <f>B78-B77</f>
+        <f t="shared" si="5"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.96000000000000429</v>
       </c>
     </row>
@@ -3464,15 +3464,15 @@
         <v>3.2240000000000002</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="E79">
-        <f>B79-B78</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="F79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3484,15 +3484,15 @@
         <v>3.2719999999999998</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E80">
-        <f>B80-B79</f>
+        <f t="shared" si="5"/>
         <v>4.7999999999999599E-2</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.95999999999999541</v>
       </c>
     </row>
@@ -3504,15 +3504,15 @@
         <v>3.3180000000000001</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="E81">
-        <f>B81-B80</f>
+        <f t="shared" si="5"/>
         <v>4.6000000000000263E-2</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.92000000000000037</v>
       </c>
     </row>
@@ -3524,15 +3524,15 @@
         <v>3.3679999999999999</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E82">
-        <f>B82-B81</f>
+        <f t="shared" si="5"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3544,15 +3544,15 @@
         <v>3.4180000000000001</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E83">
-        <f>B83-B82</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000089</v>
       </c>
     </row>
@@ -3564,15 +3564,15 @@
         <v>3.468</v>
       </c>
       <c r="D84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E84">
-        <f>B84-B83</f>
+        <f t="shared" si="5"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="F84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3584,15 +3584,15 @@
         <v>3.5179999999999998</v>
       </c>
       <c r="D85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000711E-2</v>
       </c>
       <c r="E85">
-        <f>B85-B84</f>
+        <f t="shared" si="5"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="F85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.99999999999998224</v>
       </c>
     </row>
@@ -3604,15 +3604,15 @@
         <v>3.5659999999999998</v>
       </c>
       <c r="D86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E86">
-        <f>B86-B85</f>
+        <f t="shared" si="5"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.96000000000000429</v>
       </c>
     </row>
@@ -3624,15 +3624,15 @@
         <v>3.6160000000000001</v>
       </c>
       <c r="D87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E87">
-        <f>B87-B86</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="F87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000089</v>
       </c>
     </row>
@@ -3644,15 +3644,15 @@
         <v>3.6640000000000001</v>
       </c>
       <c r="D88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E88">
-        <f>B88-B87</f>
+        <f t="shared" si="5"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.96000000000000429</v>
       </c>
     </row>
@@ -3664,15 +3664,15 @@
         <v>3.714</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E89">
-        <f>B89-B88</f>
+        <f t="shared" si="5"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="F89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3684,15 +3684,15 @@
         <v>3.762</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000711E-2</v>
       </c>
       <c r="E90">
-        <f>B90-B89</f>
+        <f t="shared" si="5"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.9599999999999872</v>
       </c>
     </row>
@@ -3704,15 +3704,15 @@
         <v>3.81</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E91">
-        <f>B91-B90</f>
+        <f t="shared" si="5"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.96000000000000429</v>
       </c>
     </row>
@@ -3724,15 +3724,15 @@
         <v>3.86</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E92">
-        <f>B92-B91</f>
+        <f t="shared" si="5"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="F92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3744,15 +3744,15 @@
         <v>3.9079999999999999</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E93">
-        <f>B93-B92</f>
+        <f t="shared" si="5"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.96000000000000429</v>
       </c>
     </row>
@@ -3764,15 +3764,15 @@
         <v>3.9580000000000002</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E94">
-        <f>B94-B93</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="F94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000089</v>
       </c>
     </row>
@@ -3784,15 +3784,15 @@
         <v>4.0060000000000002</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000711E-2</v>
       </c>
       <c r="E95">
-        <f>B95-B94</f>
+        <f t="shared" si="5"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.9599999999999872</v>
       </c>
     </row>
@@ -3804,15 +3804,15 @@
         <v>4.0540000000000003</v>
       </c>
       <c r="D96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E96">
-        <f>B96-B95</f>
+        <f t="shared" si="5"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.96000000000000429</v>
       </c>
     </row>
@@ -3824,15 +3824,15 @@
         <v>4.1020000000000003</v>
       </c>
       <c r="D97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E97">
-        <f>B97-B96</f>
+        <f t="shared" si="5"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="F97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.96000000000000429</v>
       </c>
     </row>
@@ -3844,15 +3844,15 @@
         <v>4.1159999999999997</v>
       </c>
       <c r="D98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E98">
-        <f>B98-B97</f>
+        <f t="shared" si="5"/>
         <v>1.3999999999999346E-2</v>
       </c>
       <c r="F98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.27999999999998793</v>
       </c>
     </row>
@@ -3864,15 +3864,15 @@
         <v>4.1159999999999997</v>
       </c>
       <c r="D99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E99">
-        <f>B99-B98</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3884,15 +3884,15 @@
         <v>4.1159999999999997</v>
       </c>
       <c r="D100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000711E-2</v>
       </c>
       <c r="E100">
-        <f>B100-B99</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3904,15 +3904,15 @@
         <v>4.1159999999999997</v>
       </c>
       <c r="D101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E101">
-        <f>B101-B100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3924,15 +3924,15 @@
         <v>4.1159999999999997</v>
       </c>
       <c r="D102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="E102">
-        <f>B102-B101</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>

--- a/lab3/Experiment 3/vSweep.xlsx
+++ b/lab3/Experiment 3/vSweep.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="10050"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="10050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="vSweep" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Vb</t>
   </si>
@@ -662,7 +663,7 @@
                     </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US" sz="1600" baseline="0"/>
-                      <a:t>y = 0.9773x - 0.5449
+                      <a:t>y = 0.9773 - 0.5449
 R² = 0.9999</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US" sz="1600"/>
@@ -1180,11 +1181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="511130368"/>
-        <c:axId val="516856576"/>
+        <c:axId val="45733504"/>
+        <c:axId val="45734080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="511130368"/>
+        <c:axId val="45733504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1202,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Vin</a:t>
+                  <a:t>Input Voltage (V)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1223,12 +1224,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516856576"/>
+        <c:crossAx val="45734080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516856576"/>
+        <c:axId val="45734080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,7 +1247,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Vout</a:t>
+                  <a:t>Output Voltage (V)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1268,7 +1269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511130368"/>
+        <c:crossAx val="45733504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1276,6 +1277,1362 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Incremental</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Voltage Gain of an Emitter - Follower</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9872754581515016E-2"/>
+          <c:y val="0.11625540546251037"/>
+          <c:w val="0.89034911656293503"/>
+          <c:h val="0.74840336371191529"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Gain</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:noFill/>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD">
+                  <a:alpha val="16000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9999999999999983E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0000000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51999999999999946</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70000000000000095</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77999999999999914</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8400000000000013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85999999999999888</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.90000000000000091</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92000000000000093</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95999999999999885</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95999999999999885</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.96000000000000207</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95999999999999774</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.98000000000000209</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97999999999999776</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.98000000000000209</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95999999999999552</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.97999999999999343</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.98000000000000209</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.97999999999999787</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98000000000000653</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95999999999999985</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98000000000000209</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.2000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0000000000000089</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99999999999999112</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99999999999999112</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0000000000000089</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0400000000000047</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0000000000000089</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99999999999999112</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.0000000000000089</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.95999999999999541</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.92000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.0000000000000089</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99999999999998224</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0000000000000089</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.9599999999999872</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.0000000000000089</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9599999999999872</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.27999999999998793</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1925399313375882"/>
+                  <c:y val="-0.12935566417346311"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$22:$A$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$C$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>0.95999999999999885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95999999999999885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96000000000000207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95999999999999774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98000000000000209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97999999999999776</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98000000000000209</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95999999999999552</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97999999999999343</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98000000000000209</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97999999999999787</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98000000000000653</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95999999999999985</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98000000000000209</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0000000000000089</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99999999999999112</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.99999999999999112</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0000000000000089</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0400000000000047</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0000000000000089</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99999999999999112</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0000000000000089</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.95999999999999575</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.95999999999999541</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.92000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0000000000000089</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99999999999998224</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0000000000000089</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.9599999999999872</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0000000000000089</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.9599999999999872</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.96000000000000429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="46690816"/>
+        <c:axId val="46691968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="46690816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46691968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="46691968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gain (dVout /</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> dVin)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46690816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.90081053413748224"/>
+          <c:y val="0.45954727930922767"/>
+          <c:w val="7.5241589043119825E-2"/>
+          <c:h val="6.0428492950009155E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="1"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1314,6 +2671,41 @@
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>138111</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1901,12 +3293,293 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,4 +5613,1061 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.05</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.15</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.25</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.35</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.4</v>
+      </c>
+      <c r="B10">
+        <v>1.9999999999999983E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.45</v>
+      </c>
+      <c r="B11">
+        <v>6.0000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.5</v>
+      </c>
+      <c r="B12">
+        <v>0.26000000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B13">
+        <v>0.51999999999999946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.6</v>
+      </c>
+      <c r="B14">
+        <v>0.70000000000000095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.65</v>
+      </c>
+      <c r="B15">
+        <v>0.77999999999999914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.7</v>
+      </c>
+      <c r="B16">
+        <v>0.8400000000000013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.75</v>
+      </c>
+      <c r="B17">
+        <v>0.85999999999999888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.8</v>
+      </c>
+      <c r="B18">
+        <v>0.89999999999999947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.85</v>
+      </c>
+      <c r="B19">
+        <v>0.90000000000000091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.9</v>
+      </c>
+      <c r="B20">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.95</v>
+      </c>
+      <c r="B21">
+        <v>0.92000000000000093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0.95999999999999885</v>
+      </c>
+      <c r="C22">
+        <v>0.95999999999999885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.05</v>
+      </c>
+      <c r="B23">
+        <v>0.95999999999999885</v>
+      </c>
+      <c r="C23">
+        <v>0.95999999999999885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B24">
+        <v>0.94</v>
+      </c>
+      <c r="C24">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B25">
+        <v>0.96000000000000207</v>
+      </c>
+      <c r="C25">
+        <v>0.96000000000000207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1.2</v>
+      </c>
+      <c r="B26">
+        <v>0.94</v>
+      </c>
+      <c r="C26">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.25</v>
+      </c>
+      <c r="B27">
+        <v>0.96</v>
+      </c>
+      <c r="C27">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1.3</v>
+      </c>
+      <c r="B28">
+        <v>0.95999999999999774</v>
+      </c>
+      <c r="C28">
+        <v>0.95999999999999774</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1.35</v>
+      </c>
+      <c r="B29">
+        <v>0.96</v>
+      </c>
+      <c r="C29">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.4</v>
+      </c>
+      <c r="B30">
+        <v>0.98000000000000209</v>
+      </c>
+      <c r="C30">
+        <v>0.98000000000000209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.45</v>
+      </c>
+      <c r="B31">
+        <v>0.96</v>
+      </c>
+      <c r="C31">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1.5</v>
+      </c>
+      <c r="B32">
+        <v>0.96</v>
+      </c>
+      <c r="C32">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.55</v>
+      </c>
+      <c r="B33">
+        <v>0.97999999999999776</v>
+      </c>
+      <c r="C33">
+        <v>0.97999999999999776</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.6</v>
+      </c>
+      <c r="B34">
+        <v>0.96</v>
+      </c>
+      <c r="C34">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.65</v>
+      </c>
+      <c r="B35">
+        <v>0.98000000000000209</v>
+      </c>
+      <c r="C35">
+        <v>0.98000000000000209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.7</v>
+      </c>
+      <c r="B36">
+        <v>0.96</v>
+      </c>
+      <c r="C36">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.75</v>
+      </c>
+      <c r="B37">
+        <v>0.96</v>
+      </c>
+      <c r="C37">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.8</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.85</v>
+      </c>
+      <c r="B39">
+        <v>0.95999999999999552</v>
+      </c>
+      <c r="C39">
+        <v>0.95999999999999552</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.9</v>
+      </c>
+      <c r="B40">
+        <v>0.96000000000000429</v>
+      </c>
+      <c r="C40">
+        <v>0.96000000000000429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1.95</v>
+      </c>
+      <c r="B41">
+        <v>0.96</v>
+      </c>
+      <c r="C41">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>0.96</v>
+      </c>
+      <c r="C42">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="B43">
+        <v>0.96000000000000429</v>
+      </c>
+      <c r="C43">
+        <v>0.96000000000000429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2.1</v>
+      </c>
+      <c r="B44">
+        <v>0.97999999999999343</v>
+      </c>
+      <c r="C44">
+        <v>0.97999999999999343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2.15</v>
+      </c>
+      <c r="B45">
+        <v>0.98000000000000209</v>
+      </c>
+      <c r="C45">
+        <v>0.98000000000000209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B46">
+        <v>0.97999999999999787</v>
+      </c>
+      <c r="C46">
+        <v>0.97999999999999787</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2.25</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B48">
+        <v>0.98000000000000653</v>
+      </c>
+      <c r="C48">
+        <v>0.98000000000000653</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2.35</v>
+      </c>
+      <c r="B49">
+        <v>0.95999999999999575</v>
+      </c>
+      <c r="C49">
+        <v>0.95999999999999575</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2.4</v>
+      </c>
+      <c r="B50">
+        <v>0.95999999999999985</v>
+      </c>
+      <c r="C50">
+        <v>0.95999999999999985</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="B51">
+        <v>0.95999999999999575</v>
+      </c>
+      <c r="C51">
+        <v>0.95999999999999575</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2.5</v>
+      </c>
+      <c r="B52">
+        <v>0.98000000000000209</v>
+      </c>
+      <c r="C52">
+        <v>0.98000000000000209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="B53">
+        <v>1.0000000000000044</v>
+      </c>
+      <c r="C53">
+        <v>1.0000000000000044</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2.6</v>
+      </c>
+      <c r="B54">
+        <v>0.95999999999999575</v>
+      </c>
+      <c r="C54">
+        <v>0.95999999999999575</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2.65</v>
+      </c>
+      <c r="B55">
+        <v>1.2000000000000008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2.7</v>
+      </c>
+      <c r="B56">
+        <v>0.95999999999999575</v>
+      </c>
+      <c r="C56">
+        <v>0.95999999999999575</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2.75</v>
+      </c>
+      <c r="B57">
+        <v>0.96000000000000429</v>
+      </c>
+      <c r="C57">
+        <v>0.96000000000000429</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2.8</v>
+      </c>
+      <c r="B58">
+        <v>1.0000000000000089</v>
+      </c>
+      <c r="C58">
+        <v>1.0000000000000089</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2.85</v>
+      </c>
+      <c r="B59">
+        <v>0.99999999999999112</v>
+      </c>
+      <c r="C59">
+        <v>0.99999999999999112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2.9</v>
+      </c>
+      <c r="B60">
+        <v>0.96000000000000429</v>
+      </c>
+      <c r="C60">
+        <v>0.96000000000000429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2.95</v>
+      </c>
+      <c r="B61">
+        <v>0.99999999999999112</v>
+      </c>
+      <c r="C61">
+        <v>0.99999999999999112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>1.0000000000000089</v>
+      </c>
+      <c r="C62">
+        <v>1.0000000000000089</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3.05</v>
+      </c>
+      <c r="B63">
+        <v>1.0400000000000047</v>
+      </c>
+      <c r="C63">
+        <v>1.0400000000000047</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3.1</v>
+      </c>
+      <c r="B64">
+        <v>0.95999999999999575</v>
+      </c>
+      <c r="C64">
+        <v>0.95999999999999575</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3.15</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3.2</v>
+      </c>
+      <c r="B66">
+        <v>0.95999999999999575</v>
+      </c>
+      <c r="C66">
+        <v>0.95999999999999575</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3.25</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3.3</v>
+      </c>
+      <c r="B68">
+        <v>1.0000000000000089</v>
+      </c>
+      <c r="C68">
+        <v>1.0000000000000089</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3.35</v>
+      </c>
+      <c r="B69">
+        <v>0.99999999999999112</v>
+      </c>
+      <c r="C69">
+        <v>0.99999999999999112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3.4</v>
+      </c>
+      <c r="B70">
+        <v>0.96000000000000429</v>
+      </c>
+      <c r="C70">
+        <v>0.96000000000000429</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3.45</v>
+      </c>
+      <c r="B71">
+        <v>0.95999999999999575</v>
+      </c>
+      <c r="C71">
+        <v>0.95999999999999575</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3.5</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3.55</v>
+      </c>
+      <c r="B73">
+        <v>1.0000000000000089</v>
+      </c>
+      <c r="C73">
+        <v>1.0000000000000089</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3.6</v>
+      </c>
+      <c r="B74">
+        <v>0.95999999999999575</v>
+      </c>
+      <c r="C74">
+        <v>0.95999999999999575</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3.65</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3.7</v>
+      </c>
+      <c r="B76">
+        <v>0.95999999999999575</v>
+      </c>
+      <c r="C76">
+        <v>0.95999999999999575</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3.75</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3.8</v>
+      </c>
+      <c r="B78">
+        <v>0.96000000000000429</v>
+      </c>
+      <c r="C78">
+        <v>0.96000000000000429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3.85</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3.9</v>
+      </c>
+      <c r="B80">
+        <v>0.95999999999999541</v>
+      </c>
+      <c r="C80">
+        <v>0.95999999999999541</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3.95</v>
+      </c>
+      <c r="B81">
+        <v>0.92000000000000037</v>
+      </c>
+      <c r="C81">
+        <v>0.92000000000000037</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>4.05</v>
+      </c>
+      <c r="B83">
+        <v>1.0000000000000089</v>
+      </c>
+      <c r="C83">
+        <v>1.0000000000000089</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="B85">
+        <v>0.99999999999998224</v>
+      </c>
+      <c r="C85">
+        <v>0.99999999999998224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4.2</v>
+      </c>
+      <c r="B86">
+        <v>0.96000000000000429</v>
+      </c>
+      <c r="C86">
+        <v>0.96000000000000429</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4.25</v>
+      </c>
+      <c r="B87">
+        <v>1.0000000000000089</v>
+      </c>
+      <c r="C87">
+        <v>1.0000000000000089</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4.3</v>
+      </c>
+      <c r="B88">
+        <v>0.96000000000000429</v>
+      </c>
+      <c r="C88">
+        <v>0.96000000000000429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B90">
+        <v>0.9599999999999872</v>
+      </c>
+      <c r="C90">
+        <v>0.9599999999999872</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4.45</v>
+      </c>
+      <c r="B91">
+        <v>0.96000000000000429</v>
+      </c>
+      <c r="C91">
+        <v>0.96000000000000429</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4.5</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4.55</v>
+      </c>
+      <c r="B93">
+        <v>0.96000000000000429</v>
+      </c>
+      <c r="C93">
+        <v>0.96000000000000429</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B94">
+        <v>1.0000000000000089</v>
+      </c>
+      <c r="C94">
+        <v>1.0000000000000089</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="B95">
+        <v>0.9599999999999872</v>
+      </c>
+      <c r="C95">
+        <v>0.9599999999999872</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>4.7</v>
+      </c>
+      <c r="B96">
+        <v>0.96000000000000429</v>
+      </c>
+      <c r="C96">
+        <v>0.96000000000000429</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4.75</v>
+      </c>
+      <c r="B97">
+        <v>0.96000000000000429</v>
+      </c>
+      <c r="C97">
+        <v>0.96000000000000429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4.8</v>
+      </c>
+      <c r="B98">
+        <v>0.27999999999998793</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4.95</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/lab3/Experiment 3/vSweep.xlsx
+++ b/lab3/Experiment 3/vSweep.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="10050" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="vSweep" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -663,7 +666,7 @@
                     </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US" sz="1600" baseline="0"/>
-                      <a:t>y = 0.9773 - 0.5449
+                      <a:t>y = 0.9773x(V) - 0.5449
 R² = 0.9999</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US" sz="1600"/>
@@ -1181,11 +1184,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45733504"/>
-        <c:axId val="45734080"/>
+        <c:axId val="555896192"/>
+        <c:axId val="555897920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45733504"/>
+        <c:axId val="555896192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,12 +1227,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45734080"/>
+        <c:crossAx val="555897920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45734080"/>
+        <c:axId val="555897920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1272,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45733504"/>
+        <c:crossAx val="555896192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2021,17 +2024,24 @@
                   <c:y val="-0.12935566417346311"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1400"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 0.0052x(V) + 0.96
+R² = 0.0735</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -2515,11 +2525,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="46690816"/>
-        <c:axId val="46691968"/>
+        <c:axId val="524155072"/>
+        <c:axId val="576151552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46690816"/>
+        <c:axId val="524155072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,12 +2568,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46691968"/>
+        <c:crossAx val="576151552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46691968"/>
+        <c:axId val="576151552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,7 +2618,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46690816"/>
+        <c:crossAx val="524155072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2725,6 +2735,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="VTC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3578,8 +3601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5619,8 +5642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
